--- a/config_11.24/activity_exchange_server.xlsx
+++ b/config_11.24/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
   <si>
     <t>id|</t>
   </si>
@@ -637,6 +637,105 @@
   </si>
   <si>
     <t>恭喜您在五星换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《畅游新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_gej_hj",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在火鸡换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《畅游新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大豆油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠抱枕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +817,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +828,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -771,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,6 +944,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,8 +1238,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1314,15 +1432,35 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1606176000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1606751999</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="24">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
@@ -1593,8 +1731,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1674,7 +1812,15 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="3"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
@@ -1737,7 +1883,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2377,87 +2523,198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="16"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="1:8">
+    <row r="26" spans="1:10" s="25" customFormat="1">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="25" customFormat="1">
+      <c r="A27" s="25">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26">
+        <v>5</v>
+      </c>
+      <c r="C27" s="26">
+        <v>2</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="25" customFormat="1">
+      <c r="A28" s="25">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26">
+        <v>5</v>
+      </c>
+      <c r="C28" s="26">
+        <v>3</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="25" customFormat="1">
+      <c r="A29" s="25">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26">
+        <v>5</v>
+      </c>
+      <c r="C29" s="26">
+        <v>4</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="28">
+        <v>20000000</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="25" customFormat="1">
+      <c r="A30" s="25">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26">
+        <v>5</v>
+      </c>
+      <c r="C30" s="26">
+        <v>5</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="28">
+        <v>10000000</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="25" customFormat="1">
+      <c r="A31" s="25">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26">
+        <v>5</v>
+      </c>
+      <c r="C31" s="26">
+        <v>6</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="28">
+        <v>5000000</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="25" customFormat="1">
+      <c r="A32" s="25">
+        <v>31</v>
+      </c>
+      <c r="B32" s="26">
+        <v>5</v>
+      </c>
+      <c r="C32" s="26">
+        <v>7</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="28">
+        <v>2000000</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="25" customFormat="1">
+      <c r="A33" s="25">
+        <v>32</v>
+      </c>
+      <c r="B33" s="26">
+        <v>5</v>
+      </c>
+      <c r="C33" s="26">
+        <v>8</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="28">
+        <v>1000000</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="16"/>
       <c r="B34" s="20"/>
       <c r="C34" s="16"/>
@@ -2467,7 +2724,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10">
       <c r="A35" s="16"/>
       <c r="B35" s="20"/>
       <c r="C35" s="16"/>
@@ -2477,7 +2734,7 @@
       <c r="G35" s="22"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:10">
       <c r="A36" s="16"/>
       <c r="B36" s="20"/>
       <c r="C36" s="16"/>
@@ -2487,7 +2744,7 @@
       <c r="G36" s="22"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10">
       <c r="A37" s="16"/>
       <c r="B37" s="20"/>
       <c r="C37" s="16"/>
@@ -2497,7 +2754,7 @@
       <c r="G37" s="22"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10">
       <c r="A38" s="16"/>
       <c r="B38" s="20"/>
       <c r="C38" s="16"/>
@@ -2507,7 +2764,7 @@
       <c r="G38" s="22"/>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10">
       <c r="A39" s="16"/>
       <c r="B39" s="20"/>
       <c r="C39" s="16"/>
@@ -2517,7 +2774,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10">
       <c r="A40" s="16"/>
       <c r="B40" s="20"/>
       <c r="C40" s="16"/>
@@ -2527,7 +2784,7 @@
       <c r="G40" s="22"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41" s="16"/>
       <c r="B41" s="20"/>
       <c r="C41" s="16"/>
@@ -2537,7 +2794,7 @@
       <c r="G41" s="22"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10">
       <c r="A42" s="16"/>
       <c r="B42" s="20"/>
       <c r="C42" s="16"/>
@@ -2547,7 +2804,7 @@
       <c r="G42" s="22"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:10">
       <c r="A43" s="16"/>
       <c r="B43" s="20"/>
       <c r="C43" s="16"/>
@@ -2557,7 +2814,7 @@
       <c r="G43" s="22"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10">
       <c r="A44" s="16"/>
       <c r="B44" s="20"/>
       <c r="C44" s="16"/>
@@ -2567,7 +2824,7 @@
       <c r="G44" s="22"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10">
       <c r="A45" s="16"/>
       <c r="B45" s="20"/>
       <c r="C45" s="16"/>
@@ -2577,7 +2834,7 @@
       <c r="G45" s="22"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10">
       <c r="A46" s="16"/>
       <c r="B46" s="20"/>
       <c r="C46" s="16"/>
@@ -2587,7 +2844,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10">
       <c r="A47" s="16"/>
       <c r="B47" s="20"/>
       <c r="C47" s="16"/>
@@ -2597,7 +2854,7 @@
       <c r="G47" s="22"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10">
       <c r="A48" s="16"/>
       <c r="B48" s="20"/>
       <c r="C48" s="16"/>

--- a/config_11.24/activity_exchange_server.xlsx
+++ b/config_11.24/activity_exchange_server.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
   <si>
     <t>id|</t>
   </si>
@@ -736,6 +736,26 @@
   </si>
   <si>
     <t>1200,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1238,8 +1258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1732,7 +1752,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1883,7 +1903,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2607,8 +2627,8 @@
       <c r="F29" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="28">
-        <v>20000000</v>
+      <c r="G29" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>120</v>
@@ -2629,8 +2649,8 @@
       <c r="F30" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="28">
-        <v>10000000</v>
+      <c r="G30" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="H30" s="29" t="s">
         <v>121</v>
@@ -2654,8 +2674,8 @@
       <c r="F31" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="28">
-        <v>5000000</v>
+      <c r="G31" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>122</v>
@@ -2679,8 +2699,8 @@
       <c r="F32" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="28">
-        <v>2000000</v>
+      <c r="G32" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="H32" s="29" t="s">
         <v>123</v>
@@ -2704,8 +2724,8 @@
       <c r="F33" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="28">
-        <v>1000000</v>
+      <c r="G33" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="H33" s="26" t="s">
         <v>124</v>
